--- a/results/RQ4.xlsx
+++ b/results/RQ4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\ICSE2021-HFlaw\SupplementalMaterial\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D56B50-E412-498E-8AF7-7F1AC9ED871B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A80DD2-1527-47EB-8A91-FAF0D74DD60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
